--- a/samples/scripting/convofiles/helloworldQestionAnswer.xlsx
+++ b/samples/scripting/convofiles/helloworldQestionAnswer.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\botium-core\samples\scripting\convofiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B5DCFE-2A96-4329-9363-083CDCFA4BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HelloWorld" sheetId="1" r:id="rId1"/>
+    <sheet name="Convos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -55,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +129,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,14 +137,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,9 +185,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,9 +219,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +271,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,20 +464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -440,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -448,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -459,11 +504,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -474,18 +519,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
